--- a/Example power calculations.xlsx
+++ b/Example power calculations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/JGMacDrive/GitProjects/Writing templates/Writing-templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/JGMacDrive/GitProjects/Grant templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA5F051-C58E-C546-947C-0748EF63C2CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18161F60-7F32-9B41-B16F-4D5313BF3FDD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3200" yWindow="460" windowWidth="25600" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,6 +34,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>James Grist</author>
+    <author>Microsoft Office User</author>
   </authors>
   <commentList>
     <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
@@ -109,7 +110,7 @@
           <rPr>
             <b/>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
@@ -118,12 +119,21 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Assume 95% power</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assume 95% power</t>
         </r>
       </text>
     </comment>
@@ -161,6 +171,236 @@
       </text>
     </comment>
     <comment ref="F6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>James Grist:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Number required for two-group study. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{FEAEED71-912B-1945-8D10-8E8D33BFFF18}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>James Grist:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Std of each group</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{E2BEE5DC-BF88-1E4D-9B36-A7A20A24425B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>James Grist:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Assume p&lt;0.05
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{DD9A77AD-1E57-794B-9A65-1E709E6348E1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Confidence interval width
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{C2190DD2-7813-E742-83F2-85C161604179}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>James Grist:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Number required for two-group study. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{231BE483-C6F4-0B4B-89F8-DB46D569A410}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>James Grist:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Assume p&lt;0.05
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{E901ED2F-00DA-0543-B232-A2E4DF961DC8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Confidence interval width
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D14" authorId="1" shapeId="0" xr:uid="{190FC8F7-FF9E-B644-AA4C-AA7C2C573747}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Estimated poportion of population with effect</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{3CC50F94-1412-9E4E-B05D-46B7AD97C580}">
       <text>
         <r>
           <rPr>
@@ -198,7 +438,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>Power calculations</t>
   </si>
@@ -224,13 +464,16 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Data source</t>
+    <t>Comparative means testing</t>
   </si>
   <si>
-    <t>Test</t>
+    <t xml:space="preserve">Descriptive mean </t>
   </si>
   <si>
-    <t xml:space="preserve">Assessing cell death </t>
+    <t>Mean from propotion</t>
+  </si>
+  <si>
+    <t>p</t>
   </si>
 </sst>
 </file>
@@ -244,19 +487,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="81"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="81"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -296,6 +526,19 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -316,17 +559,17 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -618,17 +861,16 @@
   <dimension ref="A2:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
@@ -659,7 +901,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
@@ -679,16 +921,12 @@
       <c r="G6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A7" s="1"/>
       <c r="B7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>1.96</v>
@@ -697,15 +935,15 @@
         <v>1.645</v>
       </c>
       <c r="E7">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <f>(4*(B7^2)*((C7+D7)^2))/(E7^2)</f>
-        <v>10.268464197530864</v>
+        <v>12.996024999999999</v>
       </c>
       <c r="G7">
         <f>ROUND(F7,0)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -717,10 +955,45 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>1.96</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <f>(4*B11^2*(C11^2))/(D11^2)</f>
+        <v>15.366399999999999</v>
+      </c>
+      <c r="G11">
+        <f>ROUND(E11,0)</f>
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
@@ -730,12 +1003,44 @@
       <c r="A13" s="1"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="E15" s="3"/>
+      <c r="B15">
+        <v>1.96</v>
+      </c>
+      <c r="C15">
+        <v>0.2</v>
+      </c>
+      <c r="D15">
+        <v>0.8</v>
+      </c>
+      <c r="E15">
+        <f>(4*(B15^2)*D15*(1-D15))/(C15^2)</f>
+        <v>61.465599999999974</v>
+      </c>
+      <c r="G15">
+        <f>ROUND(E15,0)</f>
+        <v>61</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>

--- a/Example power calculations.xlsx
+++ b/Example power calculations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/JGMacDrive/GitProjects/Grant templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesgrist/Google Drive/Grant writing/Example Documents/Grant-templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18161F60-7F32-9B41-B16F-4D5313BF3FDD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{029B0879-AFFC-7D47-9F94-37C427B347EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3200" yWindow="460" windowWidth="25600" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -470,17 +472,17 @@
     <t xml:space="preserve">Descriptive mean </t>
   </si>
   <si>
-    <t>Mean from propotion</t>
+    <t>p</t>
   </si>
   <si>
-    <t>p</t>
+    <t>Mean from population</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -858,31 +860,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K26"/>
+  <dimension ref="A2:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A22" sqref="A22:M36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="2.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -890,16 +893,16 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="G5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -923,7 +926,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" s="1"/>
       <c r="B7">
         <v>1</v>
@@ -946,15 +949,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -975,7 +978,7 @@
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" s="1"/>
       <c r="B11">
         <v>2</v>
@@ -995,16 +998,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" s="1"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>2</v>
@@ -1013,7 +1016,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>5</v>
@@ -1022,7 +1025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15" s="1"/>
       <c r="B15">
         <v>1.96</v>
@@ -1042,60 +1045,96 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
       <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
       <c r="H26" s="4"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
